--- a/diccionario REPROCESOS_CC.xlsx
+++ b/diccionario REPROCESOS_CC.xlsx
@@ -514,13 +514,13 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="73.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
